--- a/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
+++ b/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\TIMES_Kraszewski\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD4117E-1626-4EA3-8458-D16C0A69FA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19410E47-BF14-4C92-A3E4-D2D1382D9873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="16" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="50">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>ogranicza łączną moc zaisntalowaną</t>
+  </si>
+  <si>
+    <t>Stare:</t>
+  </si>
+  <si>
+    <t>Propozycja</t>
+  </si>
+  <si>
+    <t>FX?</t>
   </si>
 </sst>
 </file>
@@ -4102,7 +4111,6 @@
     <cellStyle name="Neutralne 9 3" xfId="787" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
     <cellStyle name="Neutralne_D_HEAT" xfId="788" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
     <cellStyle name="no dec" xfId="789" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="790" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
     <cellStyle name="Normal 10" xfId="791" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
     <cellStyle name="Normal 10 15 2" xfId="1263" xr:uid="{73A2D9C6-A7EA-4840-8969-C7A99FCAC7F4}"/>
@@ -4132,6 +4140,7 @@
     <cellStyle name="Normal GHG-Shade 2" xfId="810" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
     <cellStyle name="Normale_B2020" xfId="811" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="1266" xr:uid="{763883D8-8223-45C3-9F37-922F2D07C111}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="812" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
     <cellStyle name="Normalny 10 10" xfId="1270" xr:uid="{F5566DA1-D1B2-46BA-BD97-51DCE6C1DB13}"/>
     <cellStyle name="Normalny 10 2" xfId="813" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
@@ -4811,7 +4820,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4849,7 +4858,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4921,7 +4930,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5102,12 +5111,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="18.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="3" width="4" style="22" customWidth="1"/>
-    <col min="4" max="9" width="14.1796875" style="22" customWidth="1"/>
+    <col min="4" max="9" width="14.21875" style="22" customWidth="1"/>
     <col min="10" max="12" width="4" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="9.08984375" style="22"/>
+    <col min="13" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1">
@@ -5569,7 +5578,7 @@
       <c r="L40" s="21"/>
     </row>
     <row r="48" spans="1:12" ht="59.4" customHeight="1"/>
-    <row r="49" ht="64.25" customHeight="1"/>
+    <row r="49" ht="64.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="D22:E22"/>
@@ -5600,14 +5609,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="3" width="4" style="46" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="44.36328125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" style="46" customWidth="1"/>
     <col min="7" max="9" width="4" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="9.08984375" style="46"/>
+    <col min="10" max="16384" width="9.109375" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1">
@@ -5632,7 +5641,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9" ht="18.5">
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="21"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
@@ -5643,7 +5652,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:9" ht="18.5">
+    <row r="4" spans="1:9" ht="18">
       <c r="A4" s="21"/>
       <c r="B4" s="26"/>
       <c r="C4" s="31"/>
@@ -5656,7 +5665,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="1:9" ht="18.5">
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="21"/>
       <c r="B5" s="26"/>
       <c r="C5" s="31"/>
@@ -5667,7 +5676,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" ht="18.5">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="21"/>
       <c r="B6" s="26"/>
       <c r="C6" s="31"/>
@@ -5680,7 +5689,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" ht="18.5">
+    <row r="7" spans="1:9" ht="18">
       <c r="A7" s="21"/>
       <c r="B7" s="26"/>
       <c r="C7" s="31"/>
@@ -5691,7 +5700,7 @@
       <c r="H7" s="30"/>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:9" ht="18.5">
+    <row r="8" spans="1:9" ht="18">
       <c r="A8" s="21"/>
       <c r="B8" s="26"/>
       <c r="C8" s="31"/>
@@ -5702,7 +5711,7 @@
       <c r="H8" s="30"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9" ht="18.5">
+    <row r="9" spans="1:9" ht="18">
       <c r="A9" s="21"/>
       <c r="B9" s="26"/>
       <c r="C9" s="31"/>
@@ -5717,7 +5726,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" ht="18.5">
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="21"/>
       <c r="B10" s="26"/>
       <c r="C10" s="31"/>
@@ -5728,7 +5737,7 @@
       <c r="H10" s="30"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9" ht="18.5">
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="21"/>
       <c r="B11" s="26"/>
       <c r="C11" s="31"/>
@@ -5739,7 +5748,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="18.5">
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="21"/>
       <c r="B12" s="26"/>
       <c r="C12" s="31"/>
@@ -5750,7 +5759,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9" ht="18.5">
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="21"/>
       <c r="B13" s="26"/>
       <c r="C13" s="31"/>
@@ -5761,7 +5770,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" ht="18.5">
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="21"/>
       <c r="B14" s="26"/>
       <c r="C14" s="31"/>
@@ -5772,7 +5781,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="18.5">
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="21"/>
       <c r="B15" s="26"/>
       <c r="C15" s="31"/>
@@ -5783,7 +5792,7 @@
       <c r="H15" s="30"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:9" ht="18.5">
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="21"/>
       <c r="B16" s="26"/>
       <c r="C16" s="31"/>
@@ -5794,7 +5803,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" ht="18.5">
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="21"/>
       <c r="B17" s="26"/>
       <c r="C17" s="31"/>
@@ -5805,7 +5814,7 @@
       <c r="H17" s="30"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" ht="18.5">
+    <row r="18" spans="1:9" ht="18">
       <c r="A18" s="21"/>
       <c r="B18" s="26"/>
       <c r="C18" s="31"/>
@@ -5816,7 +5825,7 @@
       <c r="H18" s="30"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" ht="18.5">
+    <row r="19" spans="1:9" ht="18">
       <c r="A19" s="21"/>
       <c r="B19" s="26"/>
       <c r="C19" s="31"/>
@@ -5827,7 +5836,7 @@
       <c r="H19" s="30"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="18.5">
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="21"/>
       <c r="B20" s="26"/>
       <c r="C20" s="31"/>
@@ -5838,7 +5847,7 @@
       <c r="H20" s="30"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" ht="18.5">
+    <row r="21" spans="1:9" ht="18">
       <c r="A21" s="21"/>
       <c r="B21" s="26"/>
       <c r="C21" s="31"/>
@@ -5849,7 +5858,7 @@
       <c r="H21" s="30"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" ht="18.5">
+    <row r="22" spans="1:9" ht="18">
       <c r="A22" s="21"/>
       <c r="B22" s="26"/>
       <c r="C22" s="31"/>
@@ -5860,7 +5869,7 @@
       <c r="H22" s="30"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" ht="18.5">
+    <row r="23" spans="1:9" ht="18">
       <c r="A23" s="21"/>
       <c r="B23" s="26"/>
       <c r="C23" s="31"/>
@@ -5871,7 +5880,7 @@
       <c r="H23" s="30"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" ht="18.5">
+    <row r="24" spans="1:9" ht="18">
       <c r="A24" s="21"/>
       <c r="B24" s="26"/>
       <c r="C24" s="31"/>
@@ -5882,7 +5891,7 @@
       <c r="H24" s="30"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="1:9" ht="18.5">
+    <row r="25" spans="1:9" ht="18">
       <c r="A25" s="21"/>
       <c r="B25" s="26"/>
       <c r="C25" s="31"/>
@@ -5893,7 +5902,7 @@
       <c r="H25" s="30"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9" ht="18.5">
+    <row r="26" spans="1:9" ht="18">
       <c r="A26" s="21"/>
       <c r="B26" s="26"/>
       <c r="C26" s="31"/>
@@ -5904,7 +5913,7 @@
       <c r="H26" s="30"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:9" ht="18.5">
+    <row r="27" spans="1:9" ht="18">
       <c r="A27" s="21"/>
       <c r="B27" s="26"/>
       <c r="C27" s="31"/>
@@ -5915,7 +5924,7 @@
       <c r="H27" s="30"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:9" ht="18.5">
+    <row r="28" spans="1:9" ht="18">
       <c r="A28" s="21"/>
       <c r="B28" s="26"/>
       <c r="C28" s="31"/>
@@ -5926,7 +5935,7 @@
       <c r="H28" s="30"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9" ht="18.5">
+    <row r="29" spans="1:9" ht="18">
       <c r="A29" s="21"/>
       <c r="B29" s="26"/>
       <c r="C29" s="31"/>
@@ -5937,7 +5946,7 @@
       <c r="H29" s="30"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:9" ht="18.5">
+    <row r="30" spans="1:9" ht="18">
       <c r="A30" s="21"/>
       <c r="B30" s="26"/>
       <c r="C30" s="31"/>
@@ -5948,7 +5957,7 @@
       <c r="H30" s="30"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:9" ht="18.5">
+    <row r="31" spans="1:9" ht="18">
       <c r="A31" s="21"/>
       <c r="B31" s="26"/>
       <c r="C31" s="31"/>
@@ -5959,7 +5968,7 @@
       <c r="H31" s="30"/>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:9" ht="18.5">
+    <row r="32" spans="1:9" ht="18">
       <c r="A32" s="21"/>
       <c r="B32" s="26"/>
       <c r="C32" s="31"/>
@@ -5970,7 +5979,7 @@
       <c r="H32" s="30"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9" ht="18.5">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" s="21"/>
       <c r="B33" s="26"/>
       <c r="C33" s="31"/>
@@ -5981,7 +5990,7 @@
       <c r="H33" s="30"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:9" ht="18.5">
+    <row r="34" spans="1:9" ht="18">
       <c r="A34" s="21"/>
       <c r="B34" s="26"/>
       <c r="C34" s="31"/>
@@ -5992,7 +6001,7 @@
       <c r="H34" s="30"/>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="1:9" ht="18.5">
+    <row r="35" spans="1:9" ht="18">
       <c r="A35" s="21"/>
       <c r="B35" s="26"/>
       <c r="C35" s="31"/>
@@ -6003,7 +6012,7 @@
       <c r="H35" s="30"/>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="1:9" ht="18.5">
+    <row r="36" spans="1:9" ht="18">
       <c r="A36" s="21"/>
       <c r="B36" s="26"/>
       <c r="C36" s="31"/>
@@ -6014,7 +6023,7 @@
       <c r="H36" s="30"/>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" spans="1:9" ht="18.5">
+    <row r="37" spans="1:9" ht="18">
       <c r="A37" s="21"/>
       <c r="B37" s="26"/>
       <c r="C37" s="40"/>
@@ -6061,21 +6070,21 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
-    <col min="4" max="4" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="13">
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6222,17 +6231,17 @@
     <row r="16" spans="2:9">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:10" ht="14.5">
+    <row r="17" spans="2:10" ht="14.4">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="14.5">
+    <row r="18" spans="2:10" ht="14.4">
       <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15.5">
+    <row r="19" spans="2:10" ht="15.6">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -6243,7 +6252,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:10" ht="13">
+    <row r="20" spans="2:10" ht="26.4">
       <c r="B20" s="12" t="s">
         <v>13</v>
       </c>
@@ -6266,7 +6275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="25.5" thickBot="1">
+    <row r="21" spans="2:10" ht="27" thickBot="1">
       <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
@@ -6391,7 +6400,7 @@
       </c>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="2:10" ht="13" thickBot="1">
+    <row r="27" spans="2:10" ht="13.8" thickBot="1">
       <c r="B27" s="16"/>
       <c r="C27" s="16" t="s">
         <v>17</v>
@@ -6426,18 +6435,18 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="13">
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6584,12 +6593,12 @@
     <row r="16" spans="2:9">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:10" ht="14.5">
+    <row r="17" spans="2:10" ht="14.4">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="14.5">
+    <row r="18" spans="2:10" ht="14.4">
       <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
@@ -6605,7 +6614,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:10" ht="13">
+    <row r="20" spans="2:10" ht="26.4">
       <c r="B20" s="12" t="s">
         <v>13</v>
       </c>
@@ -6628,7 +6637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="38" thickBot="1">
+    <row r="21" spans="2:10" ht="40.200000000000003" thickBot="1">
       <c r="B21" s="20" t="s">
         <v>22</v>
       </c>
@@ -6781,29 +6790,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F1410E-BE6F-423A-AEBE-B15465F16777}">
-  <dimension ref="B2:J27"/>
+  <dimension ref="B2:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="3" max="3" width="31.54296875" customWidth="1"/>
-    <col min="4" max="4" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" customWidth="1"/>
-    <col min="6" max="6" width="30.90625" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="13">
+    <row r="2" spans="2:17">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1">
+    <row r="3" spans="2:17" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6821,8 +6830,14 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="L3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -6834,8 +6849,20 @@
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1">
+      <c r="K4">
+        <v>2025</v>
+      </c>
+      <c r="L4">
+        <v>4.2</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15.75" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -6846,13 +6873,22 @@
         <v>2025</v>
       </c>
       <c r="E5" s="4">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1">
+      <c r="K5">
+        <v>2030</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -6863,13 +6899,22 @@
         <v>2030</v>
       </c>
       <c r="E6" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1">
+      <c r="K6">
+        <v>2035</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -6880,13 +6925,22 @@
         <v>2035</v>
       </c>
       <c r="E7" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+      <c r="K7">
+        <v>2040</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -6897,13 +6951,22 @@
         <v>2040</v>
       </c>
       <c r="E8" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1">
+      <c r="K8">
+        <v>2045</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -6914,13 +6977,22 @@
         <v>2045</v>
       </c>
       <c r="E9" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="K9">
+        <v>2050</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
@@ -6931,34 +7003,34 @@
         <v>2050</v>
       </c>
       <c r="E10" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:17">
       <c r="E11" s="6"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:17">
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:17">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:10" ht="14.5">
+    <row r="17" spans="2:19" ht="14.4">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="14.5">
+    <row r="18" spans="2:19" ht="14.4">
       <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15.5">
+    <row r="19" spans="2:19" ht="15.6">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -6969,7 +7041,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:10" ht="13">
+    <row r="20" spans="2:19" ht="26.4">
       <c r="B20" s="12" t="s">
         <v>13</v>
       </c>
@@ -6992,7 +7064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="38" thickBot="1">
+    <row r="21" spans="2:19" ht="40.200000000000003" thickBot="1">
       <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
@@ -7014,8 +7086,14 @@
       <c r="H21" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="P21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
       <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
@@ -7032,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="14">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>27</v>
@@ -7040,8 +7118,17 @@
       <c r="J22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="O22">
+        <v>2025</v>
+      </c>
+      <c r="P22">
+        <v>4.2</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
         <v>16</v>
@@ -7056,11 +7143,20 @@
         <v>1</v>
       </c>
       <c r="G23" s="15">
+        <v>8</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="O23">
+        <v>2030</v>
+      </c>
+      <c r="P23">
         <v>5</v>
       </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="S23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
         <v>16</v>
@@ -7075,11 +7171,20 @@
         <v>1</v>
       </c>
       <c r="G24" s="14">
+        <v>8</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="O24">
+        <v>2035</v>
+      </c>
+      <c r="P24">
         <v>5</v>
       </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="S24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
         <v>16</v>
@@ -7094,11 +7199,20 @@
         <v>1</v>
       </c>
       <c r="G25" s="15">
+        <v>8</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="O25">
+        <v>2040</v>
+      </c>
+      <c r="P25">
         <v>5</v>
       </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="S25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
         <v>16</v>
@@ -7113,11 +7227,20 @@
         <v>1</v>
       </c>
       <c r="G26" s="14">
+        <v>8</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="O26">
+        <v>2045</v>
+      </c>
+      <c r="P26">
         <v>5</v>
       </c>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="2:10" ht="13" thickBot="1">
+      <c r="S26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="13.8" thickBot="1">
       <c r="B27" s="16"/>
       <c r="C27" s="16" t="s">
         <v>16</v>
@@ -7132,9 +7255,18 @@
         <v>1</v>
       </c>
       <c r="G27" s="16">
+        <v>8</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="O27">
+        <v>2050</v>
+      </c>
+      <c r="P27">
         <v>5</v>
       </c>
-      <c r="H27" s="16"/>
+      <c r="S27">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7144,26 +7276,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7406,26 +7518,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DBB048D-EED4-4F71-B94B-F9DE4BB7A8CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7442,4 +7555,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
+++ b/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19410E47-BF14-4C92-A3E4-D2D1382D9873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132F657A-1208-4CD7-A17D-0BADE7E4DE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="16" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="52">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -250,7 +250,13 @@
     <t>Propozycja</t>
   </si>
   <si>
-    <t>FX?</t>
+    <t xml:space="preserve">Stare </t>
+  </si>
+  <si>
+    <t>nowe</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -6067,10 +6073,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J27"/>
+  <dimension ref="B2:U27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6084,12 +6090,12 @@
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:17">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1">
+    <row r="3" spans="2:17" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6108,7 +6114,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -6120,8 +6126,14 @@
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1">
+      <c r="L4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15.75" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -6132,13 +6144,31 @@
         <v>2025</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1">
+      <c r="K5">
+        <v>2025</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>2025</v>
+      </c>
+      <c r="P5">
+        <v>1.2</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -6149,13 +6179,31 @@
         <v>2030</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1">
+      <c r="K6">
+        <v>2030</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>2030</v>
+      </c>
+      <c r="P6">
+        <v>3.3</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -6171,8 +6219,26 @@
       <c r="F7" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+      <c r="K7">
+        <v>2035</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>2035</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -6188,8 +6254,26 @@
       <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1">
+      <c r="K8">
+        <v>2040</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>2040</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -6205,8 +6289,26 @@
       <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="K9">
+        <v>2045</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>2045</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
@@ -6222,26 +6324,44 @@
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="K10">
+        <v>2050</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>2050</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:17">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:10" ht="14.4">
+    <row r="17" spans="2:21" ht="14.4">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="14.4">
+    <row r="18" spans="2:21" ht="14.4">
       <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15.6">
+    <row r="19" spans="2:21" ht="15.6">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -6252,7 +6372,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:10" ht="26.4">
+    <row r="20" spans="2:21" ht="26.4">
       <c r="B20" s="12" t="s">
         <v>13</v>
       </c>
@@ -6275,7 +6395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="27" thickBot="1">
+    <row r="21" spans="2:21" ht="27" thickBot="1">
       <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
@@ -6297,8 +6417,14 @@
       <c r="H21" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="P21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
@@ -6315,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="14">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>27</v>
@@ -6323,8 +6449,26 @@
       <c r="J22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="O22">
+        <v>2025</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>2025</v>
+      </c>
+      <c r="T22">
+        <v>1.2</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
         <v>17</v>
@@ -6339,11 +6483,29 @@
         <v>1</v>
       </c>
       <c r="G23" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="O23">
+        <v>2030</v>
+      </c>
+      <c r="P23">
         <v>0</v>
       </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="Q23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>2030</v>
+      </c>
+      <c r="T23">
+        <v>3.3</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
         <v>17</v>
@@ -6361,8 +6523,26 @@
         <v>10</v>
       </c>
       <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="O24">
+        <v>2035</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24">
+        <v>2035</v>
+      </c>
+      <c r="T24">
+        <v>10</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
         <v>17</v>
@@ -6380,8 +6560,26 @@
         <v>20</v>
       </c>
       <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="O25">
+        <v>2040</v>
+      </c>
+      <c r="P25">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>2040</v>
+      </c>
+      <c r="T25">
+        <v>20</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
         <v>17</v>
@@ -6399,8 +6597,26 @@
         <v>20</v>
       </c>
       <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="2:10" ht="13.8" thickBot="1">
+      <c r="O26">
+        <v>2045</v>
+      </c>
+      <c r="P26">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26">
+        <v>2045</v>
+      </c>
+      <c r="T26">
+        <v>20</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="13.8" thickBot="1">
       <c r="B27" s="16"/>
       <c r="C27" s="16" t="s">
         <v>17</v>
@@ -6418,6 +6634,24 @@
         <v>20</v>
       </c>
       <c r="H27" s="16"/>
+      <c r="O27">
+        <v>2050</v>
+      </c>
+      <c r="P27">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>2050</v>
+      </c>
+      <c r="T27">
+        <v>20</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6792,8 +7026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F1410E-BE6F-423A-AEBE-B15465F16777}">
   <dimension ref="B2:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6858,9 +7092,7 @@
       <c r="O4">
         <v>6</v>
       </c>
-      <c r="Q4" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1">
       <c r="B5" s="4" t="s">
@@ -7276,6 +7508,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7518,27 +7770,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DBB048D-EED4-4F71-B94B-F9DE4BB7A8CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7555,23 +7806,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
+++ b/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132F657A-1208-4CD7-A17D-0BADE7E4DE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8109048-2CBD-4364-B09D-CA165A667C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="16" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="53">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>FX</t>
+  </si>
+  <si>
+    <t>FX?</t>
   </si>
 </sst>
 </file>
@@ -6073,10 +6076,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U27"/>
+  <dimension ref="B2:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6090,12 +6093,12 @@
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:18">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="15.75" customHeight="1">
+    <row r="3" spans="2:18" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6114,7 +6117,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -6133,9 +6136,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15.75" customHeight="1">
+    <row r="5" spans="2:18" ht="15.75" customHeight="1">
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -6165,10 +6168,13 @@
         <v>1.2</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="15.75" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -6202,8 +6208,9 @@
       <c r="Q6" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" ht="15.75" customHeight="1">
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -6238,7 +6245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15.75" customHeight="1">
+    <row r="8" spans="2:18" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -6273,7 +6280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="15.75" customHeight="1">
+    <row r="9" spans="2:18" ht="15.75" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -6308,7 +6315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
@@ -6343,25 +6350,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:18">
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:18">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:21" ht="14.4">
+    <row r="17" spans="2:22" ht="14.4">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="14.4">
+    <row r="18" spans="2:22" ht="14.4">
       <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="15.6">
+    <row r="19" spans="2:22" ht="15.6">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -6372,7 +6379,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:21" ht="26.4">
+    <row r="20" spans="2:22" ht="26.4">
       <c r="B20" s="12" t="s">
         <v>13</v>
       </c>
@@ -6395,7 +6402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="27" thickBot="1">
+    <row r="21" spans="2:22" ht="27" thickBot="1">
       <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
@@ -6424,7 +6431,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:22">
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
@@ -6435,7 +6442,7 @@
         <v>2025</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F22" s="14">
         <v>1</v>
@@ -6467,8 +6474,11 @@
       <c r="U22" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:21">
+      <c r="V22" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
         <v>17</v>
@@ -6504,8 +6514,9 @@
       <c r="U23" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:21">
+      <c r="V23" s="8"/>
+    </row>
+    <row r="24" spans="2:22">
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
         <v>17</v>
@@ -6542,7 +6553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:21">
+    <row r="25" spans="2:22">
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
         <v>17</v>
@@ -6579,7 +6590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:21">
+    <row r="26" spans="2:22">
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
         <v>17</v>
@@ -6616,7 +6627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="13.8" thickBot="1">
+    <row r="27" spans="2:22" ht="13.8" thickBot="1">
       <c r="B27" s="16"/>
       <c r="C27" s="16" t="s">
         <v>17</v>
@@ -7026,7 +7037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F1410E-BE6F-423A-AEBE-B15465F16777}">
   <dimension ref="B2:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -7508,26 +7519,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7770,26 +7761,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DBB048D-EED4-4F71-B94B-F9DE4BB7A8CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7806,4 +7798,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
+++ b/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8109048-2CBD-4364-B09D-CA165A667C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B287FC7A-7BF6-4DB0-BE8F-ED0496ED2023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,9 +247,6 @@
     <t>Stare:</t>
   </si>
   <si>
-    <t>Propozycja</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stare </t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>FX?</t>
+  </si>
+  <si>
+    <t>MojeBAZOWE</t>
   </si>
 </sst>
 </file>
@@ -3213,7 +3213,7 @@
     <xf numFmtId="0" fontId="107" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="103" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3328,6 +3328,7 @@
     <xf numFmtId="0" fontId="109" fillId="46" borderId="32" xfId="1267" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1271">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6130,15 +6131,15 @@
         <v>10</v>
       </c>
       <c r="L4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="15.75" customHeight="1">
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -6171,7 +6172,7 @@
         <v>7</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="15.75" customHeight="1">
@@ -6425,10 +6426,10 @@
         <v>27</v>
       </c>
       <c r="P21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:22">
@@ -6442,7 +6443,7 @@
         <v>2025</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="14">
         <v>1</v>
@@ -6475,7 +6476,7 @@
         <v>7</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:22">
@@ -7038,7 +7039,7 @@
   <dimension ref="B2:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7078,8 +7079,8 @@
       <c r="L3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>48</v>
+      <c r="O3" s="64" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
@@ -7332,8 +7333,8 @@
       <c r="P21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S21" s="8" t="s">
-        <v>48</v>
+      <c r="S21" s="64" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:19">
@@ -7762,15 +7763,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -7779,6 +7771,15 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7801,14 +7802,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7817,4 +7810,12 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
+++ b/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B287FC7A-7BF6-4DB0-BE8F-ED0496ED2023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B60F6FB-D5B7-469A-AA81-6F22DBA76D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="16" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="52">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>FX</t>
-  </si>
-  <si>
-    <t>FX?</t>
   </si>
   <si>
     <t>MojeBAZOWE</t>
@@ -3301,6 +3298,7 @@
     <xf numFmtId="0" fontId="108" fillId="46" borderId="28" xfId="1267" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="109" fillId="46" borderId="0" xfId="1267" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3328,7 +3326,6 @@
     <xf numFmtId="0" fontId="109" fillId="46" borderId="32" xfId="1267" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1271">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5191,9 +5188,9 @@
       <c r="A6" s="21"/>
       <c r="B6" s="26"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="J6" s="32"/>
       <c r="K6" s="30"/>
       <c r="L6" s="21"/>
@@ -5214,9 +5211,9 @@
       <c r="A8" s="21"/>
       <c r="B8" s="26"/>
       <c r="C8" s="31"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
       <c r="J8" s="32"/>
       <c r="K8" s="30"/>
       <c r="L8" s="21"/>
@@ -5265,15 +5262,15 @@
       <c r="A14" s="21"/>
       <c r="B14" s="26"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="58" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
       <c r="J14" s="32"/>
       <c r="K14" s="30"/>
       <c r="L14" s="21"/>
@@ -5284,9 +5281,9 @@
       <c r="C15" s="31"/>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
       <c r="J15" s="32"/>
       <c r="K15" s="30"/>
       <c r="L15" s="21"/>
@@ -5311,16 +5308,16 @@
       <c r="A18" s="21"/>
       <c r="B18" s="26"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="59" t="s">
+      <c r="E18" s="56"/>
+      <c r="F18" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="32"/>
       <c r="K18" s="30"/>
       <c r="L18" s="21"/>
@@ -5331,10 +5328,10 @@
       <c r="C19" s="31"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="32"/>
       <c r="K19" s="30"/>
       <c r="L19" s="21"/>
@@ -5345,10 +5342,10 @@
       <c r="C20" s="31"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
       <c r="J20" s="32"/>
       <c r="K20" s="30"/>
       <c r="L20" s="21"/>
@@ -5368,10 +5365,10 @@
       <c r="A22" s="21"/>
       <c r="B22" s="26"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="55"/>
+      <c r="E22" s="56"/>
       <c r="F22" s="38">
         <v>45078</v>
       </c>
@@ -5449,10 +5446,10 @@
       <c r="A28" s="21"/>
       <c r="B28" s="26"/>
       <c r="C28" s="31"/>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="55"/>
+      <c r="E28" s="56"/>
       <c r="F28" s="22" t="s">
         <v>37</v>
       </c>
@@ -5491,10 +5488,10 @@
       <c r="A32" s="21"/>
       <c r="B32" s="26"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="55"/>
+      <c r="E32" s="56"/>
       <c r="F32" s="22" t="s">
         <v>37</v>
       </c>
@@ -5666,11 +5663,11 @@
       <c r="A4" s="21"/>
       <c r="B4" s="26"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="32"/>
       <c r="H4" s="30"/>
       <c r="I4" s="21"/>
@@ -5690,11 +5687,11 @@
       <c r="A6" s="21"/>
       <c r="B6" s="26"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="32"/>
       <c r="H6" s="30"/>
       <c r="I6" s="21"/>
@@ -6079,8 +6076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6148,7 +6145,7 @@
         <v>2025</v>
       </c>
       <c r="E5" s="4">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -6166,14 +6163,12 @@
         <v>2025</v>
       </c>
       <c r="P5">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
@@ -6449,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="14">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>27</v>
@@ -6470,14 +6465,12 @@
         <v>2025</v>
       </c>
       <c r="T22">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="V22" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="V22" s="8"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="15"/>
@@ -7038,7 +7031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F1410E-BE6F-423A-AEBE-B15465F16777}">
   <dimension ref="B2:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -7079,8 +7072,8 @@
       <c r="L3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="64" t="s">
-        <v>52</v>
+      <c r="O3" s="55" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
@@ -7333,8 +7326,8 @@
       <c r="P21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S21" s="64" t="s">
-        <v>52</v>
+      <c r="S21" s="55" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:19">
@@ -7763,6 +7756,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -7771,15 +7773,6 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7802,6 +7795,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7810,12 +7811,4 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
+++ b/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B60F6FB-D5B7-469A-AA81-6F22DBA76D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD3F7CA-3BF3-4261-A916-7D429D65E6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="16" r:id="rId1"/>
@@ -6076,7 +6076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -7031,7 +7031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F1410E-BE6F-423A-AEBE-B15465F16777}">
   <dimension ref="B2:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -7756,15 +7756,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -7773,6 +7764,15 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7795,14 +7795,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7811,4 +7803,12 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
+++ b/SuppXLS/Scen_NCAP_JW_GAZOWE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD3F7CA-3BF3-4261-A916-7D429D65E6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2E435B-8AEB-4F10-9DEA-A5C8B4005946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="16" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="54">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>MojeBAZOWE</t>
+  </si>
+  <si>
+    <t>Stare</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
@@ -6076,7 +6082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -6668,10 +6674,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88975CB1-1FB1-440A-91BD-99DEEAF1E72C}">
-  <dimension ref="B2:J27"/>
+  <dimension ref="B2:Q28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6685,12 +6691,15 @@
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1">
+      <c r="M2" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6708,8 +6717,17 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="M3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>2025</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -6721,8 +6739,17 @@
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1">
+      <c r="M4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>2030</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -6738,8 +6765,17 @@
       <c r="F5" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1">
+      <c r="M5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5">
+        <v>2035</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -6755,8 +6791,17 @@
       <c r="F6" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1">
+      <c r="M6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>2040</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -6767,13 +6812,22 @@
         <v>2035</v>
       </c>
       <c r="E7" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+      <c r="M7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>2045</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -6784,13 +6838,22 @@
         <v>2040</v>
       </c>
       <c r="E8" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1">
+      <c r="M8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8">
+        <v>2050</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -6801,13 +6864,13 @@
         <v>2045</v>
       </c>
       <c r="E9" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="2:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
@@ -6818,31 +6881,31 @@
         <v>2050</v>
       </c>
       <c r="E10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:15">
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:15">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:10" ht="14.4">
+    <row r="17" spans="2:17" ht="14.4">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="14.4">
+    <row r="18" spans="2:17" ht="14.4">
       <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="18.75" customHeight="1">
+    <row r="19" spans="2:17" ht="18.75" customHeight="1">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -6853,7 +6916,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:10" ht="26.4">
+    <row r="20" spans="2:17" ht="26.4">
       <c r="B20" s="12" t="s">
         <v>13</v>
       </c>
@@ -6876,7 +6939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="40.200000000000003" thickBot="1">
+    <row r="21" spans="2:17" ht="40.200000000000003" thickBot="1">
       <c r="B21" s="20" t="s">
         <v>22</v>
       </c>
@@ -6899,7 +6962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1">
+    <row r="22" spans="2:17" ht="18.75" customHeight="1">
       <c r="B22" s="19" t="s">
         <v>29</v>
       </c>
@@ -6924,8 +6987,11 @@
       <c r="J22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" ht="18.75" customHeight="1">
+      <c r="O22" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="18.75" customHeight="1">
       <c r="B23" s="17"/>
       <c r="C23" s="17" t="s">
         <v>18</v>
@@ -6943,8 +7009,17 @@
         <v>0</v>
       </c>
       <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="2:10" ht="18.75" customHeight="1">
+      <c r="O23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <v>2025</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="18.75" customHeight="1">
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
         <v>18</v>
@@ -6959,11 +7034,20 @@
         <v>1</v>
       </c>
       <c r="G24" s="14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="2:10" ht="18.75" customHeight="1">
+      <c r="O24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>2030</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="18.75" customHeight="1">
       <c r="B25" s="17"/>
       <c r="C25" s="17" t="s">
         <v>18</v>
@@ -6978,11 +7062,20 @@
         <v>1</v>
       </c>
       <c r="G25" s="17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="2:10" ht="18.75" customHeight="1">
+      <c r="O25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25">
+        <v>2035</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="18.75" customHeight="1">
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
         <v>18</v>
@@ -6997,11 +7090,20 @@
         <v>1</v>
       </c>
       <c r="G26" s="14">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="O26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <v>2040</v>
+      </c>
+      <c r="Q26">
         <v>20</v>
       </c>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" thickBot="1">
+    </row>
+    <row r="27" spans="2:17" ht="18.75" customHeight="1" thickBot="1">
       <c r="B27" s="18"/>
       <c r="C27" s="18" t="s">
         <v>18</v>
@@ -7016,9 +7118,29 @@
         <v>1</v>
       </c>
       <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="O27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <v>2045</v>
+      </c>
+      <c r="Q27">
         <v>20</v>
       </c>
-      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="O28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28">
+        <v>2050</v>
+      </c>
+      <c r="Q28">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7031,7 +7153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F1410E-BE6F-423A-AEBE-B15465F16777}">
   <dimension ref="B2:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -7756,6 +7878,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -7764,15 +7895,6 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7795,6 +7917,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7803,12 +7933,4 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>